--- a/data_15.xlsx
+++ b/data_15.xlsx
@@ -118,7 +118,7 @@
         <v>6.089907005059385</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0674926879596466</v>
+        <v>0.24111543641479977</v>
       </c>
       <c r="F2" t="n">
         <v>0.05414353471583022</v>
@@ -138,7 +138,7 @@
         <v>9.453214498998621</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10848757928172187</v>
+        <v>0.38756835465994866</v>
       </c>
       <c r="F3" t="n">
         <v>0.25464521526653056</v>
@@ -158,7 +158,7 @@
         <v>11.034155167225691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1287804519366954</v>
+        <v>0.4600639833603398</v>
       </c>
       <c r="F4" t="n">
         <v>0.6912112500176392</v>

--- a/data_15.xlsx
+++ b/data_15.xlsx
@@ -29,13 +29,13 @@
     <t>alfa15</t>
   </si>
   <si>
-    <t>AGR</t>
+    <t>1</t>
   </si>
   <si>
-    <t>IND</t>
+    <t>2</t>
   </si>
   <si>
-    <t>SEV</t>
+    <t>3</t>
   </si>
 </sst>
 </file>

--- a/data_15.xlsx
+++ b/data_15.xlsx
@@ -26,16 +26,16 @@
     <t>phi</t>
   </si>
   <si>
-    <t>alfa15</t>
+    <t>alfa</t>
   </si>
   <si>
-    <t>1</t>
+    <t>AGR</t>
   </si>
   <si>
-    <t>2</t>
+    <t>IND</t>
   </si>
   <si>
-    <t>3</t>
+    <t>SEV</t>
   </si>
 </sst>
 </file>

--- a/data_15.xlsx
+++ b/data_15.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.208735612956474</v>
+        <v>4.204697330465339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08942897747053064</v>
+        <v>0.09016925421640748</v>
       </c>
       <c r="D2" t="n">
-        <v>6.089907005059385</v>
+        <v>6.10812171745457</v>
       </c>
       <c r="E2" t="n">
-        <v>0.24111543641479977</v>
+        <v>0.2418815267702105</v>
       </c>
       <c r="F2" t="n">
         <v>0.05414353471583022</v>
@@ -132,7 +132,7 @@
         <v>5.983922594757825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24511971412252456</v>
+        <v>0.2449204365045999</v>
       </c>
       <c r="D3" t="n">
         <v>9.453214498998621</v>
@@ -152,7 +152,7 @@
         <v>6.268839554000213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6654513084069448</v>
+        <v>0.6649103092789926</v>
       </c>
       <c r="D4" t="n">
         <v>11.034155167225691</v>
